--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/15/seed4/result_data_RandomForest.xlsx
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>6.476999999999995</v>
+        <v>6.150599999999995</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.985199999999996</v>
+        <v>6.534799999999998</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.9466</v>
+        <v>8.935200000000002</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.305100000000003</v>
+        <v>6.079400000000005</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.717499999999999</v>
+        <v>8.806500000000002</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.552799999999994</v>
+        <v>5.580399999999994</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.455199999999999</v>
+        <v>5.635499999999997</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.7904</v>
+        <v>9.842699999999999</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.234200000000002</v>
+        <v>5.336600000000002</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.456</v>
+        <v>5.596999999999998</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.0422</v>
+        <v>6.099299999999999</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
